--- a/NoduleData.xlsx
+++ b/NoduleData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="0" windowWidth="25040" windowHeight="15020" tabRatio="500"/>
+    <workbookView xWindow="-29980" yWindow="2480" windowWidth="25040" windowHeight="15020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -504,7 +504,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
